--- a/biology/Histoire de la zoologie et de la botanique/Garth_Underwood/Garth_Underwood.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Garth_Underwood/Garth_Underwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garth Underwood (16 juillet 1919 - 15 octobre 2002), de son nom complet Garth Leon Underwood, est un herpétologiste britannique. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été le premier à prendre en compte l'évolution et la biogéographie dans sa classification des Gekkota, On the classification and evolution of geckos, publié en 1954[1].
-Plusieurs espèces de reptiles sont nommées en son honneur : Gymnophthalmus underwoodi Grant, 1958[2], Homonota underwoodi Kluge, 1964[2], le genre Underwoodisaurus Wermuth, 1965[2], Sphaerodactylus underwoodi Schwartz, 1968[2],[3], Dipsadoboa underwoodi Rasmussen, 1993[2],[4] et Dendrelaphis underwoodi Van Rooijen &amp; Vogel, 2008[2],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été le premier à prendre en compte l'évolution et la biogéographie dans sa classification des Gekkota, On the classification and evolution of geckos, publié en 1954.
+Plusieurs espèces de reptiles sont nommées en son honneur : Gymnophthalmus underwoodi Grant, 1958, Homonota underwoodi Kluge, 1964, le genre Underwoodisaurus Wermuth, 1965, Sphaerodactylus underwoodi Schwartz, 1968 Dipsadoboa underwoodi Rasmussen, 1993, et Dendrelaphis underwoodi Van Rooijen &amp; Vogel, 2008,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anolis reconditus Underwood &amp; Williams, 1959
